--- a/DOC/STM32/PIN_MAPPING.xlsx
+++ b/DOC/STM32/PIN_MAPPING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjetS6\DOC\STM32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FF7B89-3A58-4857-915A-5F5CD372A554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB7D85D-BDCE-47BA-9CC6-B0638EECB806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B94BFAE9-0516-4EB4-9E31-D1A249FBF59F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>PIN MAPPING</t>
   </si>
@@ -111,12 +111,6 @@
     <t>PC5</t>
   </si>
   <si>
-    <t>Hall effect sensors</t>
-  </si>
-  <si>
-    <t>Multiplexeur</t>
-  </si>
-  <si>
     <t>Delay Timer</t>
   </si>
   <si>
@@ -157,6 +151,39 @@
   </si>
   <si>
     <t>PWM2</t>
+  </si>
+  <si>
+    <t>1st bit of adress</t>
+  </si>
+  <si>
+    <t>2nd bit of adress</t>
+  </si>
+  <si>
+    <t>3rd bit of adress</t>
+  </si>
+  <si>
+    <t>Hall effect sensors (MUX)</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>PB8</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>PC8</t>
   </si>
 </sst>
 </file>
@@ -320,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -331,18 +358,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -377,9 +410,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -708,411 +738,491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AADDF8B-BB59-4071-8C0B-37007B20D56E}">
-  <dimension ref="B3:Q29"/>
+  <dimension ref="B3:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:Q28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22" t="s">
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22" t="s">
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20" t="s">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="19"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="19"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="21"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G13" s="1"/>
-      <c r="H13" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
+      <c r="H13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="6"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20" t="s">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20" t="s">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="6"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7" t="s">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7" t="s">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G20" s="2"/>
-      <c r="H20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="10"/>
+      <c r="H20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="12"/>
     </row>
     <row r="21" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="6"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7" t="s">
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
     </row>
     <row r="23" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7" t="s">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
     </row>
     <row r="24" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G24" s="2"/>
-      <c r="H24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="10"/>
+      <c r="H24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="12"/>
     </row>
     <row r="25" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G25" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
+      <c r="G25" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
     </row>
     <row r="26" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7" t="s">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G28" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+    </row>
+    <row r="29" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-    </row>
-    <row r="28" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G28" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-    </row>
-    <row r="29" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G29" s="1"/>
-      <c r="H29" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="66">
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="K29:N29"/>
     <mergeCell ref="O29:Q29"/>
@@ -1167,6 +1277,18 @@
     <mergeCell ref="O19:Q19"/>
     <mergeCell ref="O22:Q22"/>
     <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:Q33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
